--- a/MouseCalib.xlsx
+++ b/MouseCalib.xlsx
@@ -1,54 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\VisExp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>[-1, -1, -0.2]</t>
-  </si>
-  <si>
     <t>[-1, -1, -0.1]</t>
   </si>
   <si>
-    <t>[-1, -1, -0.05]</t>
-  </si>
-  <si>
     <t>[-1, -1, 0]</t>
   </si>
   <si>
-    <t>[-1, -1, 0.05]</t>
-  </si>
-  <si>
     <t>[-1, -1, 0.1]</t>
   </si>
   <si>
-    <t>[-1, -1, 0.2]</t>
-  </si>
-  <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>[-1, -1, 0.3]</t>
+  </si>
+  <si>
+    <t>[-1, -1, -0.3]</t>
+  </si>
+  <si>
+    <t>[-1, -1, -0.6]</t>
+  </si>
+  <si>
+    <t>[-1, -1, 0.6]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,26 +168,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,23 +203,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,49 +382,49 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
